--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA99A03-B2E9-43CC-98D9-0D2613F50E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84F7FC-2E72-4D6A-8C35-121178380594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,17 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1788,7 +1798,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2439,7 +2449,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E37" s="25">
         <v>8</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84F7FC-2E72-4D6A-8C35-121178380594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441ABAF6-92E7-4FF8-9CDA-C7693CD0C6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2632,9 +2632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441ABAF6-92E7-4FF8-9CDA-C7693CD0C6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="294">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -544,13 +543,6 @@
   <si>
     <t>InsuEndDate Desc,InsuStartDate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常
-1:借支
-2:催收
-4:結案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>總保費</t>
@@ -1113,12 +1105,6 @@
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.
-1:自保
-2:續保</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1144,11 +1130,31 @@
 8:劃撥存款</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>1:自保
+2:續保</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常
+1:借支
+2:催收
+4:結案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.與銷帳檔關聯:Ref.AcReceivable.xlsx sheet_資料來源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1459,7 +1465,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,23 +1556,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1602,23 +1591,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1794,11 +1766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1808,7 +1780,7 @@
     <col min="3" max="3" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -1825,7 +1797,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="31"/>
@@ -1838,7 +1812,9 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32.4">
       <c r="A3" s="34" t="s">
@@ -2031,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>131</v>
@@ -2051,10 +2027,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>49</v>
@@ -2110,7 +2086,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>46</v>
@@ -2125,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>31</v>
@@ -2138,12 +2114,12 @@
       </c>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" ht="48.6">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="19">
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>32</v>
@@ -2155,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2193,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2213,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2332,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>50</v>
@@ -2403,7 +2379,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>88</v>
@@ -2415,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="64.8">
@@ -2426,7 +2402,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>51</v>
@@ -2435,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2479,10 +2455,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>46</v>
@@ -2497,10 +2473,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>46</v>
@@ -2629,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2801,21 +2777,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>135</v>
@@ -2870,7 +2846,7 @@
         <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>135</v>
@@ -2878,10 +2854,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>135</v>
@@ -2889,46 +2865,46 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2939,11 +2915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2961,28 +2937,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2990,13 +2966,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="D2" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="28">
         <v>6</v>
@@ -3009,7 +2985,7 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3017,13 +2993,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>152</v>
-      </c>
       <c r="D3" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="28">
         <v>2</v>
@@ -3037,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3045,13 +3021,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>155</v>
-      </c>
       <c r="D4" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="28">
         <v>2</v>
@@ -3065,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3073,13 +3049,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="28">
         <v>10</v>
@@ -3093,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3101,13 +3077,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>161</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="28">
         <v>12</v>
@@ -3121,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3129,13 +3105,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>164</v>
-      </c>
       <c r="D7" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="28">
         <v>10</v>
@@ -3149,7 +3125,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3157,13 +3133,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="D8" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="28">
         <v>12</v>
@@ -3177,7 +3153,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3185,13 +3161,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="D9" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="28">
         <v>5</v>
@@ -3211,13 +3187,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>172</v>
-      </c>
       <c r="D10" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="28">
         <v>58</v>
@@ -3231,7 +3207,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3239,13 +3215,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>175</v>
-      </c>
       <c r="D11" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="28">
         <v>9</v>
@@ -3259,7 +3235,7 @@
         <v>126</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3267,13 +3243,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="28">
         <v>2</v>
@@ -3293,13 +3269,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>180</v>
-      </c>
       <c r="D13" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="28">
         <v>3</v>
@@ -3313,7 +3289,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3321,13 +3297,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="28">
         <v>2</v>
@@ -3341,7 +3317,7 @@
         <v>133</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3349,13 +3325,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>186</v>
-      </c>
       <c r="D15" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
@@ -3369,7 +3345,7 @@
         <v>135</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3377,13 +3353,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="D16" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="28">
         <v>4</v>
@@ -3405,13 +3381,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="D17" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -3431,13 +3407,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>193</v>
-      </c>
       <c r="D18" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -3457,13 +3433,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>195</v>
-      </c>
       <c r="D19" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="28">
         <v>7</v>
@@ -3483,13 +3459,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
@@ -3503,7 +3479,7 @@
         <v>151</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3511,13 +3487,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>199</v>
-      </c>
       <c r="D21" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="28">
         <v>16</v>
@@ -3537,13 +3513,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="28">
         <v>10</v>
@@ -3557,7 +3533,7 @@
         <v>177</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3565,13 +3541,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="28">
         <v>10</v>
@@ -3585,7 +3561,7 @@
         <v>187</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3593,13 +3569,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>204</v>
-      </c>
       <c r="D24" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="28">
         <v>11</v>
@@ -3613,7 +3589,7 @@
         <v>198</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3621,13 +3597,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>207</v>
-      </c>
       <c r="D25" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="28">
         <v>7</v>
@@ -3641,7 +3617,7 @@
         <v>205</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3649,13 +3625,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>209</v>
-      </c>
       <c r="D26" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="28">
         <v>7</v>
@@ -3669,7 +3645,7 @@
         <v>212</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3677,13 +3653,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="28">
         <v>6</v>
@@ -3697,7 +3673,7 @@
         <v>218</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3705,13 +3681,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="28">
         <v>7</v>
@@ -3725,7 +3701,7 @@
         <v>225</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3733,13 +3709,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>213</v>
-      </c>
       <c r="D29" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="28">
         <v>3</v>
@@ -3753,7 +3729,7 @@
         <v>228</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3761,13 +3737,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>215</v>
-      </c>
       <c r="D30" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="28">
         <v>4</v>
@@ -3787,13 +3763,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>217</v>
-      </c>
       <c r="D31" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="28">
         <v>14</v>
@@ -3807,7 +3783,7 @@
         <v>246</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3815,13 +3791,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>220</v>
-      </c>
       <c r="D32" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" s="28">
         <v>16</v>
@@ -3835,16 +3811,16 @@
         <v>262</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="J32" s="30" t="s">
-        <v>255</v>
-      </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3852,13 +3828,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>222</v>
-      </c>
       <c r="D33" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="28">
         <v>10</v>
@@ -3872,13 +3848,13 @@
         <v>272</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3886,13 +3862,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="D34" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="28">
         <v>10</v>
@@ -3906,13 +3882,13 @@
         <v>282</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3920,13 +3896,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>226</v>
-      </c>
       <c r="D35" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" s="28">
         <v>11</v>
@@ -3940,13 +3916,13 @@
         <v>293</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3954,13 +3930,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>228</v>
-      </c>
       <c r="D36" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="28">
         <v>7</v>
@@ -3974,13 +3950,13 @@
         <v>300</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3988,13 +3964,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>230</v>
-      </c>
       <c r="D37" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="28">
         <v>8</v>
@@ -4008,13 +3984,13 @@
         <v>308</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4022,13 +3998,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>232</v>
-      </c>
       <c r="D38" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="28">
         <v>6</v>
@@ -4042,13 +4018,13 @@
         <v>314</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4056,13 +4032,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>234</v>
-      </c>
       <c r="D39" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="28">
         <v>7</v>
@@ -4076,13 +4052,13 @@
         <v>321</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4090,13 +4066,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>236</v>
-      </c>
       <c r="D40" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="28">
         <v>16</v>
@@ -4116,13 +4092,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>238</v>
-      </c>
       <c r="D41" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="28">
         <v>60</v>
@@ -4142,13 +4118,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>240</v>
-      </c>
       <c r="D42" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" s="28">
         <v>39</v>
@@ -4168,13 +4144,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>242</v>
-      </c>
       <c r="D43" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E43" s="28">
         <v>10</v>
@@ -4194,13 +4170,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>244</v>
-      </c>
       <c r="D44" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E44" s="28">
         <v>6</v>
@@ -4220,13 +4196,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D45" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E45" s="28">
         <v>10</v>
@@ -4246,13 +4222,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>248</v>
-      </c>
       <c r="D46" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E46" s="28">
         <v>6</v>
@@ -4266,7 +4242,7 @@
         <v>468</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4274,13 +4250,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>251</v>
-      </c>
       <c r="D47" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E47" s="28">
         <v>8</v>
@@ -4300,13 +4276,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>253</v>
-      </c>
       <c r="D48" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" s="28">
         <v>10</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1147,7 +1147,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.與銷帳檔關聯:Ref.AcReceivable.xlsx sheet_資料來源</t>
+    <t>1.與銷帳檔關聯:Ref.AcReceivable.xlsx sheet_業務檔對應</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837BC70-4172-4CC4-8293-2122C9727AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1067,10 +1068,6 @@
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1150,11 +1147,27 @@
     <t>1.與銷帳檔關聯:Ref.AcReceivable.xlsx sheet_業務檔對應</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>findEndoInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = ,AND EndoInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndoInsuNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC ,EndoInsuNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1465,7 +1478,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1556,6 +1569,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1591,6 +1621,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1766,11 +1813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1798,7 +1845,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1813,7 +1860,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.4">
@@ -2131,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2169,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2189,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2411,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2455,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>284</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>285</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>46</v>
@@ -2473,10 +2520,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>46</v>
@@ -2605,12 +2652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2794,7 +2841,7 @@
         <v>277</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2887,24 +2934,35 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837BC70-4172-4CC4-8293-2122C9727AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF282706-B870-4D9D-9E60-10C3DE6B4243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
+    <sheet name="會計與業務檔檢核" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="316">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,14 +102,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>TotInsuPrem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaTlrNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -347,10 +330,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>StatusCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>OvduDate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1004,10 +983,6 @@
   <si>
     <t xml:space="preserve">NotiTempFg = </t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InsuYearMonth Desc</t>
@@ -1133,6 +1108,42 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>參考資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.與銷帳檔關聯:Ref.AcReceivable.xlsx sheet_業務檔對應</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEndoInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = ,AND EndoInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndoInsuNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC ,EndoInsuNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuRenew</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcReceivable</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcMain</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>0:正常
 1:借支
 2:催收
@@ -1140,35 +1151,96 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>參考資料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.與銷帳檔關聯:Ref.AcReceivable.xlsx sheet_業務檔對應</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>findEndoInsuNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = ,AND EndoInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndoInsuNo Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuEndDate Desc,InsuStartDate ASC ,EndoInsuNo Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>4.催收－火險費</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:暫付－火險費</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.暫收－火險費</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未收－火險費</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotInsuPrem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when StatusCode = 0 and AcDate = 0 then TotInsuPrem else 0 end)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when AcctCode='TMI' then RvBal else 0 end)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when AcctCode='TMI' then TdBal else 0 end)
+where AcDate = TBSDY</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when AcctCode='F09' then TdBal else 1 end)
+where AcDate = TBSDY</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when AcctCode='F25' then TdBal else 2 end)
+where AcDate = TBSDY</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when AcctCode='F25' then RvBal else 0 end)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when AcctCode='F09' then RvBal else 0 end)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when StatusCode = 1 and AcDate = 0 then TotInsuPrem else 0 end)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(case when StatusCode = 2 and AcDate = 0 then TotInsuPrem else 0 end)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(case when StatusCode = 0 
+                 and InsuYearMonth火險單年月 &gt;= SystemParas.InsuSettleDate火險保費已解付新產日期 / 100
+                then TotInsuPrem   else 0 end) and </t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1369,7 +1441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,10 +1457,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1399,9 +1471,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1414,9 +1483,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1462,6 +1528,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1816,28 +1885,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -1845,116 +1914,116 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="34" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="34" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="31" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="31" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+      <c r="D9" s="12"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1973,665 +2042,665 @@
       <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="23">
+        <v>7</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="23">
+        <v>17</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>5</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="23">
+        <v>17</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="23">
+        <v>6</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="23">
+        <v>7</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>9</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="23">
+        <v>17</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="23">
+        <v>17</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>11</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>12</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>13</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>14</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>15</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="17">
+        <v>14</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>16</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="17">
+        <v>14</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>17</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="17">
+        <v>14</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>18</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="17">
+        <v>14</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>19</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="23">
+        <v>8</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>20</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="23">
+        <v>8</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>21</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="17">
+        <v>14</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>22</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="23">
+        <v>8</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>23</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="23">
+        <v>6</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>24</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="23">
+        <v>8</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>25</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>26</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="23">
+        <v>1</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
         <v>27</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="B37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="23">
+        <v>8</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>28</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="23">
+        <v>10</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>29</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="25">
-        <v>2</v>
-      </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
-        <v>3</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="25">
-        <v>7</v>
-      </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
-        <v>4</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
         <v>30</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="25">
-        <v>17</v>
-      </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="25">
-        <v>17</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="B40" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="23">
+        <v>50</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>31</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>32</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>33</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="17">
+        <v>34</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="23">
         <v>6</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>7</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="25">
-        <v>7</v>
-      </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>8</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="25">
-        <v>3</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>9</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="25">
-        <v>17</v>
-      </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>10</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="25">
-        <v>17</v>
-      </c>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="32.4">
-      <c r="A21" s="19">
-        <v>11</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="25">
-        <v>1</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>12</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="25">
-        <v>2</v>
-      </c>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="129.6">
-      <c r="A23" s="19">
-        <v>13</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="19">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="145.80000000000001">
-      <c r="A24" s="19">
-        <v>14</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>15</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="19">
-        <v>14</v>
-      </c>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>16</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="19">
-        <v>14</v>
-      </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>17</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="19">
-        <v>14</v>
-      </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>18</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="19">
-        <v>14</v>
-      </c>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
-        <v>19</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="25">
-        <v>8</v>
-      </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
-        <v>20</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="25">
-        <v>8</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19">
-        <v>21</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="19">
-        <v>14</v>
-      </c>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19">
-        <v>22</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="25">
-        <v>8</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19">
-        <v>23</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="25">
-        <v>6</v>
-      </c>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="19">
-        <v>24</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="25">
-        <v>8</v>
-      </c>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7" ht="48.6">
-      <c r="A35" s="19">
-        <v>25</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="25">
-        <v>1</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="64.8">
-      <c r="A36" s="19">
-        <v>26</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="25">
-        <v>1</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="19">
-        <v>27</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="25">
-        <v>8</v>
-      </c>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="19">
-        <v>28</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="25">
-        <v>10</v>
-      </c>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="19">
-        <v>29</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="25">
-        <v>2</v>
-      </c>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="19">
-        <v>30</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="25">
-        <v>50</v>
-      </c>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="19">
-        <v>31</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="19">
-        <v>32</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="25">
-        <v>6</v>
-      </c>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="19">
-        <v>33</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="19">
-        <v>34</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="25">
-        <v>6</v>
-      </c>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="25"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="19"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="25"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="19"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="25"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="19"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="25"/>
-      <c r="G48" s="24"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="23"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="23"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="23"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="23"/>
+      <c r="G48" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2655,12 +2724,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2668,7 +2737,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2679,290 +2748,290 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3049,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -2993,1367 +3062,1456 @@
     <col min="9" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="D2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="26">
+        <v>6</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>6</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="28">
-        <v>6</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="28">
-        <v>6</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="28">
+      <c r="D3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="28">
-        <v>2</v>
-      </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <f>G2</f>
         <v>6</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <f>E3+F3</f>
         <v>8</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="28">
+      <c r="H3" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="B4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <f t="shared" ref="F4:F48" si="0">G3</f>
         <v>8</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <f t="shared" ref="G4:G48" si="1">E4+F4</f>
         <v>10</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="28">
+      <c r="H4" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="B5" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="26">
         <v>10</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="28">
+      <c r="H5" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="B6" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="26">
         <v>12</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="28">
+      <c r="H6" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="B7" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="26">
         <v>10</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="28">
+      <c r="H7" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="B8" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="26">
         <v>12</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="28">
+      <c r="H8" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="B9" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="26">
         <v>5</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="28">
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="B10" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="26">
         <v>58</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="28">
+      <c r="H10" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="B11" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="26">
         <v>9</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="28">
+      <c r="H11" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="B12" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="26">
         <v>2</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28">
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="B13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="26">
         <v>3</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="28">
+      <c r="H13" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="28">
+      <c r="B14" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="26">
         <v>2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="28">
+      <c r="H14" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="B15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="26">
         <v>2</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="26">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="28">
+      <c r="H15" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="B16" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="26">
         <v>4</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="28">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="B17" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="26">
         <v>1</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="26">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="28">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="28">
+      <c r="B18" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="26">
         <v>2</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="26">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="28">
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="B19" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="26">
         <v>7</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="26">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="26">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="28">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="28">
+      <c r="B20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="26">
         <v>2</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="26">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="28">
+      <c r="H20" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="28">
+      <c r="B21" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="26">
         <v>16</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="26">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="26">
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="28">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="28">
+      <c r="B22" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="26">
         <v>10</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="26">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="26">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="28">
+      <c r="H22" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="28">
+      <c r="B23" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="26">
         <v>10</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="26">
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="28">
-        <v>23</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="28">
+      <c r="D24" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="26">
         <v>11</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="26">
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="26">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="28">
+      <c r="H24" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="28">
+      <c r="B25" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="26">
         <v>7</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="26">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="26">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="28">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="28">
+      <c r="C26" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="26">
         <v>7</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="26">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="26">
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="H26" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="28">
+      <c r="H26" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="28">
+      <c r="B27" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="26">
         <v>6</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="26">
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="H27" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="28">
+      <c r="H27" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="28">
+      <c r="B28" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="26">
         <v>7</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="26">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="26">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="H28" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="28">
+      <c r="H28" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="28">
+      <c r="B29" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="26">
         <v>3</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="26">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="26">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="H29" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="28">
+      <c r="H29" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="28">
+      <c r="B30" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="26">
         <v>4</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="26">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="26">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="28">
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="28">
+      <c r="B31" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="26">
         <v>14</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="26">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="26">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="H31" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="28">
+      <c r="H31" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="28">
+      <c r="B32" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="26">
         <v>16</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="26">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="26">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="H32" s="29" t="s">
-        <v>186</v>
+      <c r="H32" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
         <v>253</v>
       </c>
-      <c r="J32" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="K32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="28">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="28">
+      <c r="B33" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="26">
         <v>10</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="26">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="26">
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="H33" s="29" t="s">
-        <v>200</v>
+      <c r="H33" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="I33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="28">
+      <c r="B34" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="26">
         <v>10</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="26">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="26">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="H34" s="29" t="s">
-        <v>200</v>
+      <c r="H34" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="28">
+      <c r="B35" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="26">
         <v>11</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="26">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="26">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H35" s="29" t="s">
-        <v>204</v>
+      <c r="H35" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="I35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="28">
+      <c r="B36" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="26">
         <v>7</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="26">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="26">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H36" s="29" t="s">
-        <v>204</v>
+      <c r="H36" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="I36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="28">
+      <c r="B37" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="26">
         <v>8</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="26">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="26">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="H37" s="29" t="s">
-        <v>204</v>
+      <c r="H37" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="28">
+      <c r="B38" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="26">
         <v>6</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="26">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="26">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="H38" s="29" t="s">
-        <v>204</v>
+      <c r="H38" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="I38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="28">
+      <c r="B39" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="26">
         <v>7</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="26">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="26">
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="H39" s="29" t="s">
-        <v>204</v>
+      <c r="H39" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="28">
+      <c r="B40" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="26">
         <v>16</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="26">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="26">
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="H40" s="29"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="28">
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="28">
+      <c r="B41" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="26">
         <v>60</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="26">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="26">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="28">
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="28">
+      <c r="B42" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="26">
         <v>39</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="26">
         <f t="shared" si="0"/>
         <v>397</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="26">
         <f t="shared" si="1"/>
         <v>436</v>
       </c>
-      <c r="H42" s="29"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="28">
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="28">
+      <c r="B43" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="26">
         <v>10</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="26">
         <f t="shared" si="0"/>
         <v>436</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="26">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
-      <c r="H43" s="29"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="28">
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="28">
+      <c r="B44" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="26">
         <v>6</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="26">
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="26">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
-      <c r="H44" s="29"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="28">
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="28">
+      <c r="B45" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="26">
         <v>10</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="26">
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="26">
         <f t="shared" si="1"/>
         <v>462</v>
       </c>
-      <c r="H45" s="29"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="28">
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="28">
+      <c r="B46" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="26">
         <v>6</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="26">
         <f t="shared" si="0"/>
         <v>462</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="26">
         <f t="shared" si="1"/>
         <v>468</v>
       </c>
-      <c r="H46" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="28">
+      <c r="H46" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="28">
+      <c r="B47" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="26">
         <v>8</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="26">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="26">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="H47" s="29"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="28">
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="28">
+      <c r="B48" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="26">
         <v>10</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="26">
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="26">
         <f t="shared" si="1"/>
         <v>486</v>
       </c>
-      <c r="H48" s="29"/>
+      <c r="H48" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF282706-B870-4D9D-9E60-10C3DE6B4243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8200F9-7F00-4D0C-A994-8DA2DBDEE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4436,7 +4436,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8200F9-7F00-4D0C-A994-8DA2DBDEE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A08AD-A1F4-4EBF-97E1-47435A298652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="317">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1235,12 +1235,15 @@
                 then TotInsuPrem   else 0 end) and </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>CustNo ASC, InsuEndDate Desc,InsuStartDate ASC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1885,11 +1888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
@@ -1900,7 +1903,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
@@ -1932,7 +1935,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="32.4">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +1950,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="32.4">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +1974,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +2000,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="30" t="s">
         <v>96</v>
       </c>
@@ -2010,7 +2013,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="30" t="s">
         <v>97</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="17">
         <v>1</v>
       </c>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="17">
         <v>3</v>
       </c>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="17">
         <v>4</v>
       </c>
@@ -2118,7 +2121,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="17">
         <v>5</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="17">
         <v>7</v>
       </c>
@@ -2176,7 +2179,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="17">
         <v>8</v>
       </c>
@@ -2194,7 +2197,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -2212,7 +2215,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -2230,7 +2233,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="17">
         <v>12</v>
       </c>
@@ -2268,7 +2271,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="129.6">
       <c r="A23" s="17">
         <v>13</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="145.80000000000001">
       <c r="A24" s="17">
         <v>14</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="17">
         <v>15</v>
       </c>
@@ -2326,7 +2329,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="17">
         <v>16</v>
       </c>
@@ -2344,7 +2347,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="17">
         <v>17</v>
       </c>
@@ -2362,7 +2365,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="17">
         <v>18</v>
       </c>
@@ -2380,7 +2383,7 @@
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="17">
         <v>19</v>
       </c>
@@ -2398,7 +2401,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="17">
         <v>20</v>
       </c>
@@ -2416,7 +2419,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="17">
         <v>21</v>
       </c>
@@ -2434,7 +2437,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="17">
         <v>22</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="17">
         <v>23</v>
       </c>
@@ -2472,7 +2475,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="17">
         <v>24</v>
       </c>
@@ -2490,7 +2493,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="48.6">
       <c r="A35" s="17">
         <v>25</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="64.8">
       <c r="A36" s="17">
         <v>26</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="17">
         <v>27</v>
       </c>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="17">
         <v>28</v>
       </c>
@@ -2566,7 +2569,7 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="17">
         <v>29</v>
       </c>
@@ -2584,7 +2587,7 @@
       </c>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="17">
         <v>30</v>
       </c>
@@ -2602,7 +2605,7 @@
       </c>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="17">
         <v>31</v>
       </c>
@@ -2618,7 +2621,7 @@
       <c r="E41" s="23"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="17">
         <v>32</v>
       </c>
@@ -2636,7 +2639,7 @@
       </c>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="17">
         <v>33</v>
       </c>
@@ -2652,7 +2655,7 @@
       <c r="E43" s="23"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="17">
         <v>34</v>
       </c>
@@ -2670,7 +2673,7 @@
       </c>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="17"/>
       <c r="B45" s="19"/>
       <c r="C45" s="21"/>
@@ -2678,7 +2681,7 @@
       <c r="E45" s="23"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="21"/>
@@ -2686,7 +2689,7 @@
       <c r="E46" s="23"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="17"/>
       <c r="B47" s="19"/>
       <c r="C47" s="21"/>
@@ -2694,7 +2697,7 @@
       <c r="E47" s="23"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="17"/>
       <c r="B48" s="19"/>
       <c r="C48" s="21"/>
@@ -2725,11 +2728,11 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2737,7 +2740,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>264</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>272</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>120</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
@@ -2954,10 +2957,10 @@
         <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>269</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>265</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>275</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>276</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>288</v>
       </c>
@@ -3049,7 +3052,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -3062,7 +3065,7 @@
     <col min="9" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -3309,7 +3312,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -3391,7 +3394,7 @@
       </c>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -3529,7 +3532,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -3555,7 +3558,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -3581,7 +3584,7 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -3635,7 +3638,7 @@
       </c>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="26">
         <v>29</v>
       </c>
@@ -3885,7 +3888,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="26">
         <v>31</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="26">
         <v>32</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="26">
         <v>33</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="26">
         <v>34</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="26">
         <v>35</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="26">
         <v>36</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="26">
         <v>37</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="26">
         <v>38</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="26">
         <v>39</v>
       </c>
@@ -4214,7 +4217,7 @@
       </c>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="26">
         <v>40</v>
       </c>
@@ -4240,7 +4243,7 @@
       </c>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="26">
         <v>41</v>
       </c>
@@ -4266,7 +4269,7 @@
       </c>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="26">
         <v>42</v>
       </c>
@@ -4292,7 +4295,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="26">
         <v>43</v>
       </c>
@@ -4318,7 +4321,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="26">
         <v>44</v>
       </c>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="26">
         <v>45</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="26">
         <v>46</v>
       </c>
@@ -4398,7 +4401,7 @@
       </c>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="26">
         <v>47</v>
       </c>
@@ -4435,18 +4438,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="112.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>294</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1">
       <c r="A2" t="s">
         <v>299</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="61.8" customHeight="1">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32.4">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="32.4">
       <c r="A5" t="s">
         <v>296</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A08AD-A1F4-4EBF-97E1-47435A298652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6ACF1-E333-4C36-9BF3-A92433F01DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="319">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1237,6 +1237,12 @@
   </si>
   <si>
     <t>CustNo ASC, InsuEndDate Desc,InsuStartDate ASC</t>
+  </si>
+  <si>
+    <t>InsuReceiptDate</t>
+  </si>
+  <si>
+    <t>保單收件日</t>
   </si>
 </sst>
 </file>
@@ -1886,21 +1892,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1935,7 +1941,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="34">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +1967,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="34">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2239,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="32.4">
+    <row r="21" spans="1:7" ht="34">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -2271,7 +2277,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="129.6">
+    <row r="23" spans="1:7" ht="136">
       <c r="A23" s="17">
         <v>13</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="145.80000000000001">
+    <row r="24" spans="1:7" ht="153">
       <c r="A24" s="17">
         <v>14</v>
       </c>
@@ -2493,7 +2499,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="48.6">
+    <row r="35" spans="1:7" ht="51">
       <c r="A35" s="17">
         <v>25</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="64.8">
+    <row r="36" spans="1:7" ht="68">
       <c r="A36" s="17">
         <v>26</v>
       </c>
@@ -2592,16 +2598,16 @@
         <v>30</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E40" s="23">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G40" s="22"/>
     </row>
@@ -2609,16 +2615,18 @@
       <c r="A41" s="17">
         <v>31</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>105</v>
+      <c r="B41" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="E41" s="23">
+        <v>50</v>
+      </c>
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7">
@@ -2626,17 +2634,15 @@
         <v>32</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="23">
-        <v>6</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E42" s="23"/>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7">
@@ -2644,15 +2650,17 @@
         <v>33</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="E43" s="23">
+        <v>6</v>
+      </c>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7">
@@ -2660,25 +2668,33 @@
         <v>34</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="17">
+        <v>35</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E45" s="23">
         <v>6</v>
       </c>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="23"/>
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7">
@@ -2704,6 +2720,14 @@
       <c r="D48" s="19"/>
       <c r="E48" s="23"/>
       <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="23"/>
+      <c r="G49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2732,10 +2756,10 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -3052,20 +3076,20 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
+    <row r="1" spans="1:9" ht="17.5" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
@@ -4442,11 +4466,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="3" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4474,7 +4498,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="61.8" customHeight="1">
+    <row r="3" spans="1:4" ht="61.75" customHeight="1">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -4488,7 +4512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.4">
+    <row r="4" spans="1:4" ht="34">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -4502,7 +4526,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.4">
+    <row r="5" spans="1:4" ht="34">
       <c r="A5" t="s">
         <v>296</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6ACF1-E333-4C36-9BF3-A92433F01DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609F1F6-A4CA-48D3-B3A1-FF823D1B34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="318">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -507,10 +507,6 @@
   <si>
     <t>批單號碼</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClCode1,ClCode2,ClNo,PrevInsuNo,EndoInsuNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改時需填入</t>
@@ -1124,10 +1120,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EndoInsuNo Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuEndDate Desc,InsuStartDate ASC ,EndoInsuNo Asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1243,6 +1235,9 @@
   </si>
   <si>
     <t>保單收件日</t>
+  </si>
+  <si>
+    <t>ClCode1,ClCode2,ClNo,PrevInsuNo,EndoInsuNo,InsuYearMonth</t>
   </si>
 </sst>
 </file>
@@ -1894,19 +1889,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="7"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1923,7 +1918,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1938,16 +1933,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="34">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="11" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1967,7 +1962,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="34">
+    <row r="5" spans="1:7" ht="32.4">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>128</v>
@@ -2144,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2152,10 +2147,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>47</v>
@@ -2211,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>44</v>
@@ -2226,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>29</v>
@@ -2239,12 +2234,12 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="34">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="17">
         <v>11</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>30</v>
@@ -2256,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2277,7 +2272,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="136">
+    <row r="23" spans="1:7" ht="129.6">
       <c r="A23" s="17">
         <v>13</v>
       </c>
@@ -2294,10 +2289,10 @@
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="153">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="145.80000000000001">
       <c r="A24" s="17">
         <v>14</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2430,10 +2425,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>48</v>
@@ -2448,7 +2443,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>39</v>
@@ -2499,12 +2494,12 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="51">
+    <row r="35" spans="1:7" ht="48.6">
       <c r="A35" s="17">
         <v>25</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>85</v>
@@ -2516,18 +2511,18 @@
         <v>1</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="68">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="64.8">
       <c r="A36" s="17">
         <v>26</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>49</v>
@@ -2536,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2580,10 +2575,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>44</v>
@@ -2598,10 +2593,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>86</v>
@@ -2616,10 +2611,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>44</v>
@@ -2752,14 +2747,14 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2783,7 +2778,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2794,7 +2789,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2805,7 +2800,7 @@
         <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2816,7 +2811,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2827,7 +2822,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2838,7 +2833,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2849,7 +2844,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2860,7 +2855,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2871,7 +2866,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2882,7 +2877,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2893,7 +2888,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2904,7 +2899,7 @@
         <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2915,29 +2910,29 @@
         <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2948,7 +2943,7 @@
         <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2959,7 +2954,7 @@
         <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2970,7 +2965,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2981,84 +2976,84 @@
         <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3076,43 +3071,43 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3120,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>145</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="26">
         <v>6</v>
@@ -3139,7 +3134,7 @@
       </c>
       <c r="H2" s="27"/>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3147,13 +3142,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>148</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="26">
         <v>2</v>
@@ -3167,7 +3162,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3175,13 +3170,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="26">
         <v>2</v>
@@ -3195,7 +3190,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3203,13 +3198,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>154</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="26">
         <v>10</v>
@@ -3223,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3231,13 +3226,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>157</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="26">
         <v>12</v>
@@ -3251,7 +3246,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3259,13 +3254,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>160</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="26">
         <v>10</v>
@@ -3279,7 +3274,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3287,13 +3282,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>163</v>
-      </c>
       <c r="D8" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="26">
         <v>12</v>
@@ -3307,7 +3302,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3315,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>166</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="26">
         <v>5</v>
@@ -3341,13 +3336,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>168</v>
-      </c>
       <c r="D10" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="26">
         <v>58</v>
@@ -3361,7 +3356,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3369,13 +3364,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>171</v>
-      </c>
       <c r="D11" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="26">
         <v>9</v>
@@ -3389,7 +3384,7 @@
         <v>126</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3397,13 +3392,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>174</v>
-      </c>
       <c r="D12" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
@@ -3423,13 +3418,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>176</v>
-      </c>
       <c r="D13" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="26">
         <v>3</v>
@@ -3443,7 +3438,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3451,13 +3446,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>179</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="26">
         <v>2</v>
@@ -3471,7 +3466,7 @@
         <v>133</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3479,13 +3474,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>182</v>
-      </c>
       <c r="D15" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
@@ -3499,7 +3494,7 @@
         <v>135</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3507,13 +3502,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="26">
         <v>4</v>
@@ -3535,13 +3530,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>187</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
@@ -3561,13 +3556,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="D18" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="26">
         <v>2</v>
@@ -3587,13 +3582,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>191</v>
-      </c>
       <c r="D19" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="26">
         <v>7</v>
@@ -3613,13 +3608,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="26">
         <v>2</v>
@@ -3633,7 +3628,7 @@
         <v>151</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3641,13 +3636,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>195</v>
-      </c>
       <c r="D21" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="26">
         <v>16</v>
@@ -3667,13 +3662,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="26">
         <v>10</v>
@@ -3687,7 +3682,7 @@
         <v>177</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3695,13 +3690,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="26">
         <v>10</v>
@@ -3715,7 +3710,7 @@
         <v>187</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3723,13 +3718,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>200</v>
-      </c>
       <c r="D24" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="26">
         <v>11</v>
@@ -3743,7 +3738,7 @@
         <v>198</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3751,13 +3746,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>203</v>
-      </c>
       <c r="D25" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="26">
         <v>7</v>
@@ -3771,7 +3766,7 @@
         <v>205</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3779,13 +3774,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>205</v>
-      </c>
       <c r="D26" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="26">
         <v>7</v>
@@ -3799,7 +3794,7 @@
         <v>212</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3807,13 +3802,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="26">
         <v>6</v>
@@ -3827,7 +3822,7 @@
         <v>218</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3835,13 +3830,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="26">
         <v>7</v>
@@ -3855,7 +3850,7 @@
         <v>225</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3863,13 +3858,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>209</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="26">
         <v>3</v>
@@ -3883,7 +3878,7 @@
         <v>228</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3891,13 +3886,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>211</v>
-      </c>
       <c r="D30" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="26">
         <v>4</v>
@@ -3917,13 +3912,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="D31" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="26">
         <v>14</v>
@@ -3937,7 +3932,7 @@
         <v>246</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3945,13 +3940,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>216</v>
-      </c>
       <c r="D32" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" s="26">
         <v>16</v>
@@ -3965,16 +3960,16 @@
         <v>262</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>251</v>
-      </c>
       <c r="K32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3982,13 +3977,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="26">
         <v>10</v>
@@ -4002,13 +3997,13 @@
         <v>272</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4016,13 +4011,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="26">
         <v>10</v>
@@ -4036,13 +4031,13 @@
         <v>282</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4050,13 +4045,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>222</v>
-      </c>
       <c r="D35" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="26">
         <v>11</v>
@@ -4070,13 +4065,13 @@
         <v>293</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4084,13 +4079,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="D36" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" s="26">
         <v>7</v>
@@ -4104,13 +4099,13 @@
         <v>300</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4118,13 +4113,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>226</v>
-      </c>
       <c r="D37" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="26">
         <v>8</v>
@@ -4138,13 +4133,13 @@
         <v>308</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4152,13 +4147,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>228</v>
-      </c>
       <c r="D38" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="26">
         <v>6</v>
@@ -4172,13 +4167,13 @@
         <v>314</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4186,13 +4181,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>230</v>
-      </c>
       <c r="D39" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="26">
         <v>7</v>
@@ -4206,13 +4201,13 @@
         <v>321</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4220,13 +4215,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>232</v>
-      </c>
       <c r="D40" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="26">
         <v>16</v>
@@ -4246,13 +4241,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>234</v>
-      </c>
       <c r="D41" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="26">
         <v>60</v>
@@ -4272,13 +4267,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>236</v>
-      </c>
       <c r="D42" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" s="26">
         <v>39</v>
@@ -4298,13 +4293,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="D43" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" s="26">
         <v>10</v>
@@ -4324,13 +4319,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>240</v>
-      </c>
       <c r="D44" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="26">
         <v>6</v>
@@ -4350,13 +4345,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>242</v>
-      </c>
       <c r="D45" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="26">
         <v>10</v>
@@ -4376,13 +4371,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="26" t="s">
-        <v>244</v>
-      </c>
       <c r="D46" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" s="26">
         <v>6</v>
@@ -4396,7 +4391,7 @@
         <v>468</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4404,13 +4399,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>247</v>
-      </c>
       <c r="D47" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="26">
         <v>8</v>
@@ -4430,13 +4425,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>249</v>
-      </c>
       <c r="D48" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E48" s="26">
         <v>10</v>
@@ -4466,78 +4461,78 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="3" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="61.8" customHeight="1">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>305</v>
       </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="61.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.4">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.4">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34">
-      <c r="A4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="C5" t="s">
         <v>308</v>
       </c>
-      <c r="C4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34">
-      <c r="A5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609F1F6-A4CA-48D3-B3A1-FF823D1B34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C5339-C960-47F2-A698-47A1DD929AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1042,10 +1042,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND NowInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findNowInsuNoEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1238,6 +1234,9 @@
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo,PrevInsuNo,EndoInsuNo,InsuYearMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NowInsuNo = </t>
   </si>
 </sst>
 </file>
@@ -1567,9 +1566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1607,9 +1606,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1642,26 +1641,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1694,26 +1676,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1889,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1918,7 +1883,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1933,7 +1898,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48.6">
@@ -1942,7 +1907,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -2147,7 +2112,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>254</v>
@@ -2251,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2289,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2309,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2425,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>132</v>
@@ -2443,7 +2408,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>39</v>
@@ -2519,7 +2484,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>133</v>
@@ -2531,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2575,10 +2540,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>279</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>44</v>
@@ -2593,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>316</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>86</v>
@@ -2611,10 +2576,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>44</v>
@@ -2746,9 +2711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2932,7 +2897,7 @@
         <v>272</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2976,7 +2941,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3025,32 +2990,32 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>258</v>
@@ -4470,69 +4435,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="61.8" customHeight="1">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
         <v>304</v>
       </c>
-      <c r="C3" t="s">
-        <v>305</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.4">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
         <v>307</v>
       </c>
-      <c r="C5" t="s">
-        <v>308</v>
-      </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C5339-C960-47F2-A698-47A1DD929AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E072523-9055-4411-AEAA-A7C6A84DFB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="321">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1035,10 +1035,6 @@
   </si>
   <si>
     <t>prevInsuNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1237,6 +1233,21 @@
   </si>
   <si>
     <t xml:space="preserve">NowInsuNo = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND InsuYearMonth = ,AND  PrevInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC , FacmNo ASC ,InsuEndDate Desc,InsuStartDate ASC</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1894,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1898,7 +1909,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48.6">
@@ -1907,7 +1918,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -2112,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>254</v>
@@ -2216,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2254,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2274,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2390,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>132</v>
@@ -2408,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>39</v>
@@ -2484,7 +2495,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>133</v>
@@ -2496,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2540,10 +2551,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>44</v>
@@ -2558,10 +2569,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>86</v>
@@ -2576,10 +2587,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>44</v>
@@ -2709,11 +2720,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2765,7 +2776,7 @@
         <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2894,10 +2905,10 @@
         <v>271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2941,7 +2952,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2990,35 +3001,46 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4435,69 +4457,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="61.8" customHeight="1">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" t="s">
         <v>303</v>
       </c>
-      <c r="C3" t="s">
-        <v>304</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.4">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.4">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
         <v>306</v>
       </c>
-      <c r="C5" t="s">
-        <v>307</v>
-      </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E072523-9055-4411-AEAA-A7C6A84DFB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B83508-B45D-4F2A-B51D-A7E92A864F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="320">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -430,10 +426,6 @@
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1249,12 +1241,15 @@
   <si>
     <t>CustNo ASC , FacmNo ASC ,InsuEndDate Desc,InsuStartDate ASC</t>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1865,11 +1860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
@@ -1880,7 +1875,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -1894,14 +1889,14 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1909,16 +1904,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="48.6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1927,7 +1922,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1933,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1946,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +1959,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1972,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>96</v>
       </c>
@@ -1990,7 +1985,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>97</v>
       </c>
@@ -2003,7 +1998,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>1</v>
       </c>
@@ -2044,7 +2039,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -2062,7 +2057,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>3</v>
       </c>
@@ -2080,12 +2075,12 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>28</v>
@@ -2098,15 +2093,15 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>44</v>
@@ -2115,18 +2110,18 @@
         <v>17</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>47</v>
@@ -2135,10 +2130,10 @@
         <v>6</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>7</v>
       </c>
@@ -2156,7 +2151,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>8</v>
       </c>
@@ -2174,7 +2169,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -2182,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>44</v>
@@ -2192,12 +2187,12 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>10</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>29</v>
@@ -2210,12 +2205,12 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="32.4">
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>11</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>30</v>
@@ -2227,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>12</v>
       </c>
@@ -2248,7 +2243,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="129.6">
+    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>13</v>
       </c>
@@ -2265,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="145.80000000000001">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>14</v>
       </c>
@@ -2285,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>15</v>
       </c>
@@ -2306,7 +2301,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>16</v>
       </c>
@@ -2324,7 +2319,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>17</v>
       </c>
@@ -2342,7 +2337,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>18</v>
       </c>
@@ -2360,7 +2355,7 @@
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>19</v>
       </c>
@@ -2378,7 +2373,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>20</v>
       </c>
@@ -2396,15 +2391,15 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>21</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>48</v>
@@ -2414,12 +2409,12 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>22</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>39</v>
@@ -2434,7 +2429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>23</v>
       </c>
@@ -2452,7 +2447,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>24</v>
       </c>
@@ -2470,12 +2465,12 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="48.6">
+    <row r="35" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>25</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>85</v>
@@ -2487,18 +2482,18 @@
         <v>1</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="64.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>26</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>49</v>
@@ -2507,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>27</v>
       </c>
@@ -2528,7 +2523,7 @@
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>28</v>
       </c>
@@ -2546,15 +2541,15 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>29</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>44</v>
@@ -2564,15 +2559,15 @@
       </c>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>30</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>86</v>
@@ -2582,15 +2577,15 @@
       </c>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>31</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>44</v>
@@ -2600,7 +2595,7 @@
       </c>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>32</v>
       </c>
@@ -2611,64 +2606,64 @@
         <v>101</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="E42" s="23"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>33</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="23">
         <v>6</v>
       </c>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>34</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="E44" s="23"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>35</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>104</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" s="23">
         <v>6</v>
       </c>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="21"/>
@@ -2676,7 +2671,7 @@
       <c r="E46" s="23"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="19"/>
       <c r="C47" s="21"/>
@@ -2684,7 +2679,7 @@
       <c r="E47" s="23"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="19"/>
       <c r="C48" s="21"/>
@@ -2692,7 +2687,7 @@
       <c r="E48" s="23"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="21"/>
@@ -2722,12 +2717,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2735,7 +2730,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -2754,10 +2749,10 @@
         <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -2765,10 +2760,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,10 +2771,10 @@
         <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -2787,10 +2782,10 @@
         <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2798,10 +2793,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2809,10 +2804,10 @@
         <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2820,32 +2815,32 @@
         <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2853,10 +2848,10 @@
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -2864,183 +2859,183 @@
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3053,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -3071,44 +3066,44 @@
     <col min="9" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="26">
         <v>6</v>
@@ -3121,21 +3116,21 @@
       </c>
       <c r="H2" s="27"/>
       <c r="I2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="26">
         <v>2</v>
@@ -3149,21 +3144,21 @@
         <v>8</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="26">
         <v>2</v>
@@ -3177,21 +3172,21 @@
         <v>10</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="26">
         <v>10</v>
@@ -3205,21 +3200,21 @@
         <v>20</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="26">
         <v>12</v>
@@ -3233,21 +3228,21 @@
         <v>32</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="26">
         <v>10</v>
@@ -3261,21 +3256,21 @@
         <v>42</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="26">
         <v>12</v>
@@ -3289,21 +3284,21 @@
         <v>54</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="26">
         <v>5</v>
@@ -3318,18 +3313,18 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="26">
         <v>58</v>
@@ -3343,21 +3338,21 @@
         <v>117</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="26">
         <v>9</v>
@@ -3371,21 +3366,21 @@
         <v>126</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
@@ -3400,18 +3395,18 @@
       </c>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="26">
         <v>3</v>
@@ -3425,21 +3420,21 @@
         <v>131</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="26">
         <v>2</v>
@@ -3453,21 +3448,21 @@
         <v>133</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
@@ -3481,21 +3476,21 @@
         <v>135</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="26">
         <v>4</v>
@@ -3512,18 +3507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
@@ -3538,18 +3533,18 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="26">
         <v>2</v>
@@ -3564,18 +3559,18 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="26">
         <v>7</v>
@@ -3590,18 +3585,18 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="26">
         <v>2</v>
@@ -3615,21 +3610,21 @@
         <v>151</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="26">
         <v>16</v>
@@ -3644,18 +3639,18 @@
       </c>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="26">
         <v>10</v>
@@ -3669,21 +3664,21 @@
         <v>177</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E23" s="26">
         <v>10</v>
@@ -3697,21 +3692,21 @@
         <v>187</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="26">
         <v>11</v>
@@ -3725,21 +3720,21 @@
         <v>198</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="26">
         <v>7</v>
@@ -3753,21 +3748,21 @@
         <v>205</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="26">
         <v>7</v>
@@ -3781,21 +3776,21 @@
         <v>212</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E27" s="26">
         <v>6</v>
@@ -3809,21 +3804,21 @@
         <v>218</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E28" s="26">
         <v>7</v>
@@ -3837,21 +3832,21 @@
         <v>225</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29" s="26">
         <v>3</v>
@@ -3865,21 +3860,21 @@
         <v>228</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" s="26">
         <v>4</v>
@@ -3894,18 +3889,18 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E31" s="26">
         <v>14</v>
@@ -3919,21 +3914,21 @@
         <v>246</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" s="26">
         <v>16</v>
@@ -3947,30 +3942,30 @@
         <v>262</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J32" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
         <v>250</v>
       </c>
-      <c r="K32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E33" s="26">
         <v>10</v>
@@ -3984,27 +3979,27 @@
         <v>272</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
         <v>249</v>
       </c>
-      <c r="J33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E34" s="26">
         <v>10</v>
@@ -4018,27 +4013,27 @@
         <v>282</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
         <v>249</v>
       </c>
-      <c r="J34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E35" s="26">
         <v>11</v>
@@ -4052,27 +4047,27 @@
         <v>293</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
         <v>249</v>
       </c>
-      <c r="J35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" s="26">
         <v>7</v>
@@ -4086,27 +4081,27 @@
         <v>300</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
         <v>249</v>
       </c>
-      <c r="J36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E37" s="26">
         <v>8</v>
@@ -4120,27 +4115,27 @@
         <v>308</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I37" t="s">
+        <v>247</v>
+      </c>
+      <c r="J37" t="s">
         <v>249</v>
       </c>
-      <c r="J37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>37</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E38" s="26">
         <v>6</v>
@@ -4154,27 +4149,27 @@
         <v>314</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I38" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" t="s">
         <v>249</v>
       </c>
-      <c r="J38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E39" s="26">
         <v>7</v>
@@ -4188,27 +4183,27 @@
         <v>321</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I39" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" t="s">
         <v>249</v>
       </c>
-      <c r="J39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E40" s="26">
         <v>16</v>
@@ -4223,18 +4218,18 @@
       </c>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>40</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="26">
         <v>60</v>
@@ -4249,18 +4244,18 @@
       </c>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E42" s="26">
         <v>39</v>
@@ -4275,18 +4270,18 @@
       </c>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" s="26">
         <v>10</v>
@@ -4301,18 +4296,18 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44" s="26">
         <v>6</v>
@@ -4327,18 +4322,18 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="26">
         <v>10</v>
@@ -4353,18 +4348,18 @@
       </c>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" s="26">
         <v>6</v>
@@ -4378,21 +4373,21 @@
         <v>468</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E47" s="26">
         <v>8</v>
@@ -4407,18 +4402,18 @@
       </c>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E48" s="26">
         <v>10</v>
@@ -4448,78 +4443,78 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="112.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>290</v>
       </c>
-      <c r="C1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1">
-      <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="61.8" customHeight="1">
-      <c r="A3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.4">
-      <c r="A4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="C5" t="s">
         <v>304</v>
       </c>
-      <c r="C4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32.4">
-      <c r="A5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>306</v>
-      </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
